--- a/sample/sample-transaction-import-file-error-type.xlsx
+++ b/sample/sample-transaction-import-file-error-type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="10">
   <si>
     <t>datetime</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Nguyen Van A chuyen tien</t>
+  </si>
+  <si>
+    <t>Invalid number</t>
   </si>
   <si>
     <t>Deposit</t>
@@ -50,8 +53,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,7 +66,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,16 +79,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,29 +95,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -131,7 +110,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,52 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -200,7 +203,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,7 +218,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,37 +284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,31 +296,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,37 +338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,49 +362,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,21 +409,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,25 +436,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -490,8 +469,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,18 +485,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,130 +532,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,14 +987,14 @@
   <sheetPr/>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A976" workbookViewId="0">
-      <selection activeCell="J990" sqref="J990"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.28571428571429"/>
-    <col min="3" max="3" width="14"/>
+    <col min="3" max="3" width="20.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1009,17 +1012,14 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>44622.3472337963</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>40874</v>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1033,7 +1033,7 @@
         <v>-596230</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1047,7 +1047,7 @@
         <v>-355890</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1061,7 +1061,7 @@
         <v>63924</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1075,7 +1075,7 @@
         <v>-1392991</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1089,7 +1089,7 @@
         <v>1005741</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1103,7 +1103,7 @@
         <v>-661446</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1117,7 +1117,7 @@
         <v>-903396</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1131,7 +1131,7 @@
         <v>394956</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1145,7 +1145,7 @@
         <v>-295178</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1159,7 +1159,7 @@
         <v>898588</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1173,7 +1173,7 @@
         <v>-400196</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1187,7 +1187,7 @@
         <v>-15661</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1201,7 +1201,7 @@
         <v>1271700</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1215,7 +1215,7 @@
         <v>979746</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1229,7 +1229,7 @@
         <v>-1143173</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1243,7 +1243,7 @@
         <v>-1264209</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1257,7 +1257,7 @@
         <v>342999</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1271,7 +1271,7 @@
         <v>-1224002</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1285,7 +1285,7 @@
         <v>533960</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1299,7 +1299,7 @@
         <v>428748</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1313,7 +1313,7 @@
         <v>-924438</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1327,7 +1327,7 @@
         <v>107369</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1341,7 +1341,7 @@
         <v>772410</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1355,7 +1355,7 @@
         <v>336932</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1369,7 +1369,7 @@
         <v>-1093686</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1383,7 +1383,7 @@
         <v>-271619</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1397,7 +1397,7 @@
         <v>828272</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1411,7 +1411,7 @@
         <v>161647</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1425,7 +1425,7 @@
         <v>-1204477</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1439,7 +1439,7 @@
         <v>-1264286</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1453,7 +1453,7 @@
         <v>-1481815</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1467,7 +1467,7 @@
         <v>500726</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1481,7 +1481,7 @@
         <v>169697</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1495,7 +1495,7 @@
         <v>-934807</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1509,7 +1509,7 @@
         <v>358734</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1523,7 +1523,7 @@
         <v>794088</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1537,7 +1537,7 @@
         <v>1291227</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1551,7 +1551,7 @@
         <v>442238</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1565,7 +1565,7 @@
         <v>-492841</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1579,7 +1579,7 @@
         <v>-807765</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1593,7 +1593,7 @@
         <v>-832710</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1607,7 +1607,7 @@
         <v>800169</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1621,7 +1621,7 @@
         <v>994555</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1635,7 +1635,7 @@
         <v>-78809</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1649,7 +1649,7 @@
         <v>-557420</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1663,7 +1663,7 @@
         <v>1492681</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1677,7 +1677,7 @@
         <v>644741</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1691,7 +1691,7 @@
         <v>1068018</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1705,7 +1705,7 @@
         <v>-1066934</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1719,7 +1719,7 @@
         <v>-168351</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1733,7 +1733,7 @@
         <v>-813404</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1747,7 +1747,7 @@
         <v>-750555</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1761,7 +1761,7 @@
         <v>1238793</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1775,7 +1775,7 @@
         <v>811365</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1789,7 +1789,7 @@
         <v>1109400</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1803,7 +1803,7 @@
         <v>793190</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1817,7 +1817,7 @@
         <v>451297</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1831,7 +1831,7 @@
         <v>815409</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1845,7 +1845,7 @@
         <v>-695111</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1859,7 +1859,7 @@
         <v>972945</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1873,7 +1873,7 @@
         <v>1242296</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1887,7 +1887,7 @@
         <v>521188</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1901,7 +1901,7 @@
         <v>-1308138</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1915,7 +1915,7 @@
         <v>1262526</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1929,7 +1929,7 @@
         <v>1268705</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1943,7 +1943,7 @@
         <v>-1338940</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1957,7 +1957,7 @@
         <v>144360</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1971,7 +1971,7 @@
         <v>-87982</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1985,7 +1985,7 @@
         <v>130388</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1999,7 +1999,7 @@
         <v>1050846</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2013,7 +2013,7 @@
         <v>1360628</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2027,7 +2027,7 @@
         <v>1481350</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2041,7 +2041,7 @@
         <v>1014346</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2055,7 +2055,7 @@
         <v>1412938</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2069,7 +2069,7 @@
         <v>-870435</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2083,7 +2083,7 @@
         <v>-365362</v>
       </c>
       <c r="D78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2097,7 +2097,7 @@
         <v>-635014</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2111,7 +2111,7 @@
         <v>-505014</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2125,7 +2125,7 @@
         <v>-1277683</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2139,7 +2139,7 @@
         <v>213286</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2153,7 +2153,7 @@
         <v>219965</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2167,7 +2167,7 @@
         <v>225768</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2181,7 +2181,7 @@
         <v>366142</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2195,7 +2195,7 @@
         <v>1193089</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2209,7 +2209,7 @@
         <v>-378097</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2223,7 +2223,7 @@
         <v>-697162</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2237,7 +2237,7 @@
         <v>-418541</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2251,7 +2251,7 @@
         <v>-401312</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2265,7 +2265,7 @@
         <v>-808526</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2279,7 +2279,7 @@
         <v>-424010</v>
       </c>
       <c r="D92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2293,7 +2293,7 @@
         <v>-399656</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2307,7 +2307,7 @@
         <v>145899</v>
       </c>
       <c r="D94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2321,7 +2321,7 @@
         <v>-1120418</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2335,7 +2335,7 @@
         <v>-948279</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2349,7 +2349,7 @@
         <v>781633</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2363,7 +2363,7 @@
         <v>805381</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2377,7 +2377,7 @@
         <v>-348416</v>
       </c>
       <c r="D99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2391,7 +2391,7 @@
         <v>-820002</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2405,7 +2405,7 @@
         <v>1432066</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2419,7 +2419,7 @@
         <v>1218395</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2433,7 +2433,7 @@
         <v>305480</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2447,7 +2447,7 @@
         <v>1401981</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2461,7 +2461,7 @@
         <v>-463090</v>
       </c>
       <c r="D105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2475,7 +2475,7 @@
         <v>826230</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2489,7 +2489,7 @@
         <v>97023</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2503,7 +2503,7 @@
         <v>1383684</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2517,7 +2517,7 @@
         <v>-1232074</v>
       </c>
       <c r="D109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2531,7 +2531,7 @@
         <v>432004</v>
       </c>
       <c r="D110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2545,7 +2545,7 @@
         <v>-916668</v>
       </c>
       <c r="D111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2559,7 +2559,7 @@
         <v>1179958</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2573,7 +2573,7 @@
         <v>1133661</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2587,7 +2587,7 @@
         <v>854645</v>
       </c>
       <c r="D114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2601,7 +2601,7 @@
         <v>-151675</v>
       </c>
       <c r="D115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2615,7 +2615,7 @@
         <v>-967365</v>
       </c>
       <c r="D116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2629,7 +2629,7 @@
         <v>1117582</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2643,7 +2643,7 @@
         <v>396506</v>
       </c>
       <c r="D118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2657,7 +2657,7 @@
         <v>8837</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2671,7 +2671,7 @@
         <v>164467</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2685,7 +2685,7 @@
         <v>-725346</v>
       </c>
       <c r="D121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2699,7 +2699,7 @@
         <v>-200995</v>
       </c>
       <c r="D122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2713,7 +2713,7 @@
         <v>602839</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2727,7 +2727,7 @@
         <v>246133</v>
       </c>
       <c r="D124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2741,7 +2741,7 @@
         <v>-1062482</v>
       </c>
       <c r="D125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2755,7 +2755,7 @@
         <v>-420531</v>
       </c>
       <c r="D126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2769,7 +2769,7 @@
         <v>-80752</v>
       </c>
       <c r="D127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2783,7 +2783,7 @@
         <v>-1246528</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2797,7 +2797,7 @@
         <v>719526</v>
       </c>
       <c r="D129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2811,7 +2811,7 @@
         <v>-286026</v>
       </c>
       <c r="D130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2825,7 +2825,7 @@
         <v>-114843</v>
       </c>
       <c r="D131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2839,7 +2839,7 @@
         <v>1358321</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2853,7 +2853,7 @@
         <v>-484731</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2867,7 +2867,7 @@
         <v>-1463330</v>
       </c>
       <c r="D134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2881,7 +2881,7 @@
         <v>-647093</v>
       </c>
       <c r="D135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2895,7 +2895,7 @@
         <v>1092930</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2909,7 +2909,7 @@
         <v>-906933</v>
       </c>
       <c r="D137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2923,7 +2923,7 @@
         <v>1115828</v>
       </c>
       <c r="D138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2937,7 +2937,7 @@
         <v>-883284</v>
       </c>
       <c r="D139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2951,7 +2951,7 @@
         <v>349683</v>
       </c>
       <c r="D140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2965,7 +2965,7 @@
         <v>428830</v>
       </c>
       <c r="D141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2979,7 +2979,7 @@
         <v>-579817</v>
       </c>
       <c r="D142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2993,7 +2993,7 @@
         <v>-774736</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3007,7 +3007,7 @@
         <v>206028</v>
       </c>
       <c r="D144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3021,7 +3021,7 @@
         <v>-1033148</v>
       </c>
       <c r="D145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3035,7 +3035,7 @@
         <v>-350014</v>
       </c>
       <c r="D146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3049,7 +3049,7 @@
         <v>-1217761</v>
       </c>
       <c r="D147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3063,7 +3063,7 @@
         <v>-1153692</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3077,7 +3077,7 @@
         <v>1257424</v>
       </c>
       <c r="D149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3091,7 +3091,7 @@
         <v>-1256228</v>
       </c>
       <c r="D150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3105,7 +3105,7 @@
         <v>321192</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3119,7 +3119,7 @@
         <v>889265</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3133,7 +3133,7 @@
         <v>572765</v>
       </c>
       <c r="D153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3147,7 +3147,7 @@
         <v>733145</v>
       </c>
       <c r="D154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3161,7 +3161,7 @@
         <v>-180368</v>
       </c>
       <c r="D155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3175,7 +3175,7 @@
         <v>338383</v>
       </c>
       <c r="D156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3189,7 +3189,7 @@
         <v>162927</v>
       </c>
       <c r="D157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3203,7 +3203,7 @@
         <v>1191296</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3217,7 +3217,7 @@
         <v>-1022991</v>
       </c>
       <c r="D159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3231,7 +3231,7 @@
         <v>-1104273</v>
       </c>
       <c r="D160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3245,7 +3245,7 @@
         <v>-1047394</v>
       </c>
       <c r="D161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3259,7 +3259,7 @@
         <v>-1007482</v>
       </c>
       <c r="D162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3273,7 +3273,7 @@
         <v>424797</v>
       </c>
       <c r="D163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3287,7 +3287,7 @@
         <v>1034191</v>
       </c>
       <c r="D164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3301,7 +3301,7 @@
         <v>568303</v>
       </c>
       <c r="D165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3315,7 +3315,7 @@
         <v>-543146</v>
       </c>
       <c r="D166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3329,7 +3329,7 @@
         <v>-1313854</v>
       </c>
       <c r="D167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3343,7 +3343,7 @@
         <v>1424969</v>
       </c>
       <c r="D168" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3357,7 +3357,7 @@
         <v>-783009</v>
       </c>
       <c r="D169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3371,7 +3371,7 @@
         <v>-77602</v>
       </c>
       <c r="D170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3385,7 +3385,7 @@
         <v>412431</v>
       </c>
       <c r="D171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3399,7 +3399,7 @@
         <v>-132298</v>
       </c>
       <c r="D172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3413,7 +3413,7 @@
         <v>-268294</v>
       </c>
       <c r="D173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3427,7 +3427,7 @@
         <v>-1221165</v>
       </c>
       <c r="D174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3441,7 +3441,7 @@
         <v>1223194</v>
       </c>
       <c r="D175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3455,7 +3455,7 @@
         <v>322061</v>
       </c>
       <c r="D176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3469,7 +3469,7 @@
         <v>14403</v>
       </c>
       <c r="D177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3483,7 +3483,7 @@
         <v>824480</v>
       </c>
       <c r="D178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3497,7 +3497,7 @@
         <v>-804459</v>
       </c>
       <c r="D179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3511,7 +3511,7 @@
         <v>120188</v>
       </c>
       <c r="D180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3525,7 +3525,7 @@
         <v>123257</v>
       </c>
       <c r="D181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3539,7 +3539,7 @@
         <v>10548</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3553,7 +3553,7 @@
         <v>976944</v>
       </c>
       <c r="D183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3567,7 +3567,7 @@
         <v>-1290099</v>
       </c>
       <c r="D184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3581,7 +3581,7 @@
         <v>625710</v>
       </c>
       <c r="D185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3595,7 +3595,7 @@
         <v>194265</v>
       </c>
       <c r="D186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3609,7 +3609,7 @@
         <v>-565199</v>
       </c>
       <c r="D187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3623,7 +3623,7 @@
         <v>-1340719</v>
       </c>
       <c r="D188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3637,7 +3637,7 @@
         <v>945878</v>
       </c>
       <c r="D189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3651,7 +3651,7 @@
         <v>-937440</v>
       </c>
       <c r="D190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3665,7 +3665,7 @@
         <v>718028</v>
       </c>
       <c r="D191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3679,7 +3679,7 @@
         <v>-1153064</v>
       </c>
       <c r="D192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3693,7 +3693,7 @@
         <v>857201</v>
       </c>
       <c r="D193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3707,7 +3707,7 @@
         <v>940010</v>
       </c>
       <c r="D194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3721,7 +3721,7 @@
         <v>96610</v>
       </c>
       <c r="D195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3735,7 +3735,7 @@
         <v>301230</v>
       </c>
       <c r="D196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3749,7 +3749,7 @@
         <v>-939271</v>
       </c>
       <c r="D197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3763,7 +3763,7 @@
         <v>-1026242</v>
       </c>
       <c r="D198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3777,7 +3777,7 @@
         <v>158525</v>
       </c>
       <c r="D199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3791,7 +3791,7 @@
         <v>989801</v>
       </c>
       <c r="D200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3805,7 +3805,7 @@
         <v>-724038</v>
       </c>
       <c r="D201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3819,7 +3819,7 @@
         <v>909785</v>
       </c>
       <c r="D202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3833,7 +3833,7 @@
         <v>231724</v>
       </c>
       <c r="D203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3847,7 +3847,7 @@
         <v>-912434</v>
       </c>
       <c r="D204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3861,7 +3861,7 @@
         <v>647808</v>
       </c>
       <c r="D205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3875,7 +3875,7 @@
         <v>-693031</v>
       </c>
       <c r="D206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3889,7 +3889,7 @@
         <v>1180987</v>
       </c>
       <c r="D207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3903,7 +3903,7 @@
         <v>136044</v>
       </c>
       <c r="D208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3917,7 +3917,7 @@
         <v>501281</v>
       </c>
       <c r="D209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3931,7 +3931,7 @@
         <v>1371095</v>
       </c>
       <c r="D210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3945,7 +3945,7 @@
         <v>-22523</v>
       </c>
       <c r="D211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3959,7 +3959,7 @@
         <v>866985</v>
       </c>
       <c r="D212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3973,7 +3973,7 @@
         <v>-228653</v>
       </c>
       <c r="D213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3987,7 +3987,7 @@
         <v>-1225820</v>
       </c>
       <c r="D214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4001,7 +4001,7 @@
         <v>-1406127</v>
       </c>
       <c r="D215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4015,7 +4015,7 @@
         <v>741555</v>
       </c>
       <c r="D216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4029,7 +4029,7 @@
         <v>-258542</v>
       </c>
       <c r="D217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4043,7 +4043,7 @@
         <v>-404397</v>
       </c>
       <c r="D218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4057,7 +4057,7 @@
         <v>-570157</v>
       </c>
       <c r="D219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4071,7 +4071,7 @@
         <v>36182</v>
       </c>
       <c r="D220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4085,7 +4085,7 @@
         <v>1482153</v>
       </c>
       <c r="D221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4099,7 +4099,7 @@
         <v>-1471925</v>
       </c>
       <c r="D222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4113,7 +4113,7 @@
         <v>-1426301</v>
       </c>
       <c r="D223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4127,7 +4127,7 @@
         <v>730960</v>
       </c>
       <c r="D224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4141,7 +4141,7 @@
         <v>1317389</v>
       </c>
       <c r="D225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4155,7 +4155,7 @@
         <v>1316736</v>
       </c>
       <c r="D226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4169,7 +4169,7 @@
         <v>359226</v>
       </c>
       <c r="D227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4183,7 +4183,7 @@
         <v>499483</v>
       </c>
       <c r="D228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4197,7 +4197,7 @@
         <v>213787</v>
       </c>
       <c r="D229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4211,7 +4211,7 @@
         <v>-1153658</v>
       </c>
       <c r="D230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4225,7 +4225,7 @@
         <v>766500</v>
       </c>
       <c r="D231" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4239,7 +4239,7 @@
         <v>-934675</v>
       </c>
       <c r="D232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4253,7 +4253,7 @@
         <v>-872170</v>
       </c>
       <c r="D233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4267,7 +4267,7 @@
         <v>-1423865</v>
       </c>
       <c r="D234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4281,7 +4281,7 @@
         <v>-1307022</v>
       </c>
       <c r="D235" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4295,7 +4295,7 @@
         <v>-1286299</v>
       </c>
       <c r="D236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4309,7 +4309,7 @@
         <v>-290878</v>
       </c>
       <c r="D237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4323,7 +4323,7 @@
         <v>-1087948</v>
       </c>
       <c r="D238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4337,7 +4337,7 @@
         <v>1391551</v>
       </c>
       <c r="D239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4351,7 +4351,7 @@
         <v>-140660</v>
       </c>
       <c r="D240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4365,7 +4365,7 @@
         <v>-1054357</v>
       </c>
       <c r="D241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4379,7 +4379,7 @@
         <v>796126</v>
       </c>
       <c r="D242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4393,7 +4393,7 @@
         <v>771677</v>
       </c>
       <c r="D243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4407,7 +4407,7 @@
         <v>-1009444</v>
       </c>
       <c r="D244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4421,7 +4421,7 @@
         <v>-270421</v>
       </c>
       <c r="D245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4435,7 +4435,7 @@
         <v>345499</v>
       </c>
       <c r="D246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4449,7 +4449,7 @@
         <v>-23216</v>
       </c>
       <c r="D247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4463,7 +4463,7 @@
         <v>1076628</v>
       </c>
       <c r="D248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4477,7 +4477,7 @@
         <v>721092</v>
       </c>
       <c r="D249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4491,7 +4491,7 @@
         <v>1344251</v>
       </c>
       <c r="D250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4505,7 +4505,7 @@
         <v>-519141</v>
       </c>
       <c r="D251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4519,7 +4519,7 @@
         <v>655593</v>
       </c>
       <c r="D252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4533,7 +4533,7 @@
         <v>-1156733</v>
       </c>
       <c r="D253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4547,7 +4547,7 @@
         <v>1214116</v>
       </c>
       <c r="D254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4561,7 +4561,7 @@
         <v>236621</v>
       </c>
       <c r="D255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4575,7 +4575,7 @@
         <v>28668</v>
       </c>
       <c r="D256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4589,7 +4589,7 @@
         <v>-457801</v>
       </c>
       <c r="D257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4603,7 +4603,7 @@
         <v>777804</v>
       </c>
       <c r="D258" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4617,7 +4617,7 @@
         <v>1302779</v>
       </c>
       <c r="D259" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4631,7 +4631,7 @@
         <v>-1390649</v>
       </c>
       <c r="D260" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4645,7 +4645,7 @@
         <v>-714123</v>
       </c>
       <c r="D261" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4659,7 +4659,7 @@
         <v>-11616</v>
       </c>
       <c r="D262" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4673,7 +4673,7 @@
         <v>1455419</v>
       </c>
       <c r="D263" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4687,7 +4687,7 @@
         <v>-46899</v>
       </c>
       <c r="D264" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4701,7 +4701,7 @@
         <v>952095</v>
       </c>
       <c r="D265" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4715,7 +4715,7 @@
         <v>-92993</v>
       </c>
       <c r="D266" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4729,7 +4729,7 @@
         <v>1328869</v>
       </c>
       <c r="D267" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4743,7 +4743,7 @@
         <v>28921</v>
       </c>
       <c r="D268" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4757,7 +4757,7 @@
         <v>666213</v>
       </c>
       <c r="D269" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4771,7 +4771,7 @@
         <v>341</v>
       </c>
       <c r="D270" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4785,7 +4785,7 @@
         <v>-490956</v>
       </c>
       <c r="D271" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4799,7 +4799,7 @@
         <v>1163525</v>
       </c>
       <c r="D272" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4813,7 +4813,7 @@
         <v>-173537</v>
       </c>
       <c r="D273" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4827,7 +4827,7 @@
         <v>-825247</v>
       </c>
       <c r="D274" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4841,7 +4841,7 @@
         <v>-1277558</v>
       </c>
       <c r="D275" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4855,7 +4855,7 @@
         <v>-1082766</v>
       </c>
       <c r="D276" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4869,7 +4869,7 @@
         <v>301823</v>
       </c>
       <c r="D277" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4883,7 +4883,7 @@
         <v>360677</v>
       </c>
       <c r="D278" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4897,7 +4897,7 @@
         <v>-718344</v>
       </c>
       <c r="D279" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4911,7 +4911,7 @@
         <v>-883538</v>
       </c>
       <c r="D280" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4925,7 +4925,7 @@
         <v>-1032097</v>
       </c>
       <c r="D281" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4939,7 +4939,7 @@
         <v>263067</v>
       </c>
       <c r="D282" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4953,7 +4953,7 @@
         <v>584648</v>
       </c>
       <c r="D283" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4967,7 +4967,7 @@
         <v>-1302303</v>
       </c>
       <c r="D284" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4981,7 +4981,7 @@
         <v>-1029747</v>
       </c>
       <c r="D285" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4995,7 +4995,7 @@
         <v>910904</v>
       </c>
       <c r="D286" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5009,7 +5009,7 @@
         <v>-358759</v>
       </c>
       <c r="D287" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5023,7 +5023,7 @@
         <v>1241231</v>
       </c>
       <c r="D288" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5037,7 +5037,7 @@
         <v>-917532</v>
       </c>
       <c r="D289" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5051,7 +5051,7 @@
         <v>-470934</v>
       </c>
       <c r="D290" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5065,7 +5065,7 @@
         <v>-994662</v>
       </c>
       <c r="D291" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5079,7 +5079,7 @@
         <v>-1232228</v>
       </c>
       <c r="D292" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5093,7 +5093,7 @@
         <v>612327</v>
       </c>
       <c r="D293" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5107,7 +5107,7 @@
         <v>-1296419</v>
       </c>
       <c r="D294" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5121,7 +5121,7 @@
         <v>-104569</v>
       </c>
       <c r="D295" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5135,7 +5135,7 @@
         <v>-1213675</v>
       </c>
       <c r="D296" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5149,7 +5149,7 @@
         <v>-115351</v>
       </c>
       <c r="D297" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5163,7 +5163,7 @@
         <v>244115</v>
       </c>
       <c r="D298" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5177,7 +5177,7 @@
         <v>339799</v>
       </c>
       <c r="D299" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5191,7 +5191,7 @@
         <v>-360871</v>
       </c>
       <c r="D300" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5205,7 +5205,7 @@
         <v>571779</v>
       </c>
       <c r="D301" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5219,7 +5219,7 @@
         <v>-34979</v>
       </c>
       <c r="D302" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5233,7 +5233,7 @@
         <v>773947</v>
       </c>
       <c r="D303" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5247,7 +5247,7 @@
         <v>-687820</v>
       </c>
       <c r="D304" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5261,7 +5261,7 @@
         <v>187459</v>
       </c>
       <c r="D305" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5275,7 +5275,7 @@
         <v>-447802</v>
       </c>
       <c r="D306" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5289,7 +5289,7 @@
         <v>-494613</v>
       </c>
       <c r="D307" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5303,7 +5303,7 @@
         <v>612167</v>
       </c>
       <c r="D308" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5317,7 +5317,7 @@
         <v>-440011</v>
       </c>
       <c r="D309" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5331,7 +5331,7 @@
         <v>-20022</v>
       </c>
       <c r="D310" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5345,7 +5345,7 @@
         <v>66472</v>
       </c>
       <c r="D311" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5359,7 +5359,7 @@
         <v>-770750</v>
       </c>
       <c r="D312" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5373,7 +5373,7 @@
         <v>1004014</v>
       </c>
       <c r="D313" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5387,7 +5387,7 @@
         <v>825808</v>
       </c>
       <c r="D314" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5401,7 +5401,7 @@
         <v>-954150</v>
       </c>
       <c r="D315" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>-1471658</v>
       </c>
       <c r="D316" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5429,7 +5429,7 @@
         <v>993767</v>
       </c>
       <c r="D317" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5443,7 +5443,7 @@
         <v>845551</v>
       </c>
       <c r="D318" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5457,7 +5457,7 @@
         <v>-84250</v>
       </c>
       <c r="D319" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5471,7 +5471,7 @@
         <v>-111020</v>
       </c>
       <c r="D320" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5485,7 +5485,7 @@
         <v>-1135043</v>
       </c>
       <c r="D321" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5499,7 +5499,7 @@
         <v>-1307822</v>
       </c>
       <c r="D322" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5513,7 +5513,7 @@
         <v>782050</v>
       </c>
       <c r="D323" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5527,7 +5527,7 @@
         <v>1441021</v>
       </c>
       <c r="D324" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5541,7 +5541,7 @@
         <v>-917695</v>
       </c>
       <c r="D325" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5555,7 +5555,7 @@
         <v>612929</v>
       </c>
       <c r="D326" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5569,7 +5569,7 @@
         <v>-1269068</v>
       </c>
       <c r="D327" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -5583,7 +5583,7 @@
         <v>28491</v>
       </c>
       <c r="D328" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5597,7 +5597,7 @@
         <v>158888</v>
       </c>
       <c r="D329" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5611,7 +5611,7 @@
         <v>1410433</v>
       </c>
       <c r="D330" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5625,7 +5625,7 @@
         <v>1032272</v>
       </c>
       <c r="D331" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5639,7 +5639,7 @@
         <v>-365920</v>
       </c>
       <c r="D332" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5653,7 +5653,7 @@
         <v>-501424</v>
       </c>
       <c r="D333" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5667,7 +5667,7 @@
         <v>538001</v>
       </c>
       <c r="D334" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5681,7 +5681,7 @@
         <v>749779</v>
       </c>
       <c r="D335" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5695,7 +5695,7 @@
         <v>822344</v>
       </c>
       <c r="D336" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5709,7 +5709,7 @@
         <v>994239</v>
       </c>
       <c r="D337" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5723,7 +5723,7 @@
         <v>1384366</v>
       </c>
       <c r="D338" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5737,7 +5737,7 @@
         <v>179775</v>
       </c>
       <c r="D339" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5751,7 +5751,7 @@
         <v>-61538</v>
       </c>
       <c r="D340" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5765,7 +5765,7 @@
         <v>450294</v>
       </c>
       <c r="D341" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5779,7 +5779,7 @@
         <v>289207</v>
       </c>
       <c r="D342" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5793,7 +5793,7 @@
         <v>663181</v>
       </c>
       <c r="D343" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5807,7 +5807,7 @@
         <v>-1340525</v>
       </c>
       <c r="D344" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5821,7 +5821,7 @@
         <v>892258</v>
       </c>
       <c r="D345" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5835,7 +5835,7 @@
         <v>-509460</v>
       </c>
       <c r="D346" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5849,7 +5849,7 @@
         <v>134881</v>
       </c>
       <c r="D347" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5863,7 +5863,7 @@
         <v>767421</v>
       </c>
       <c r="D348" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5877,7 +5877,7 @@
         <v>-509389</v>
       </c>
       <c r="D349" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5891,7 +5891,7 @@
         <v>538384</v>
       </c>
       <c r="D350" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5905,7 +5905,7 @@
         <v>-891725</v>
       </c>
       <c r="D351" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5919,7 +5919,7 @@
         <v>769512</v>
       </c>
       <c r="D352" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5933,7 +5933,7 @@
         <v>-769977</v>
       </c>
       <c r="D353" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5947,7 +5947,7 @@
         <v>1144000</v>
       </c>
       <c r="D354" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5961,7 +5961,7 @@
         <v>-488097</v>
       </c>
       <c r="D355" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5975,7 +5975,7 @@
         <v>1056773</v>
       </c>
       <c r="D356" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5989,7 +5989,7 @@
         <v>-136155</v>
       </c>
       <c r="D357" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6003,7 +6003,7 @@
         <v>-137545</v>
       </c>
       <c r="D358" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6017,7 +6017,7 @@
         <v>-1393614</v>
       </c>
       <c r="D359" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6031,7 +6031,7 @@
         <v>-675332</v>
       </c>
       <c r="D360" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6045,7 +6045,7 @@
         <v>-569062</v>
       </c>
       <c r="D361" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6059,7 +6059,7 @@
         <v>1135022</v>
       </c>
       <c r="D362" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6073,7 +6073,7 @@
         <v>1292483</v>
       </c>
       <c r="D363" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6087,7 +6087,7 @@
         <v>-684399</v>
       </c>
       <c r="D364" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6101,7 +6101,7 @@
         <v>711054</v>
       </c>
       <c r="D365" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6115,7 +6115,7 @@
         <v>168822</v>
       </c>
       <c r="D366" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6129,7 +6129,7 @@
         <v>1337212</v>
       </c>
       <c r="D367" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6143,7 +6143,7 @@
         <v>663690</v>
       </c>
       <c r="D368" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6157,7 +6157,7 @@
         <v>356050</v>
       </c>
       <c r="D369" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6171,7 +6171,7 @@
         <v>1104828</v>
       </c>
       <c r="D370" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6185,7 +6185,7 @@
         <v>97594</v>
       </c>
       <c r="D371" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6199,7 +6199,7 @@
         <v>478621</v>
       </c>
       <c r="D372" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6213,7 +6213,7 @@
         <v>-260015</v>
       </c>
       <c r="D373" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -6227,7 +6227,7 @@
         <v>-211272</v>
       </c>
       <c r="D374" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6241,7 +6241,7 @@
         <v>595534</v>
       </c>
       <c r="D375" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6255,7 +6255,7 @@
         <v>596848</v>
       </c>
       <c r="D376" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -6269,7 +6269,7 @@
         <v>-8439</v>
       </c>
       <c r="D377" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -6283,7 +6283,7 @@
         <v>-71685</v>
       </c>
       <c r="D378" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6297,7 +6297,7 @@
         <v>-355890</v>
       </c>
       <c r="D379" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -6311,7 +6311,7 @@
         <v>-1115020</v>
       </c>
       <c r="D380" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -6325,7 +6325,7 @@
         <v>-1344947</v>
       </c>
       <c r="D381" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -6339,7 +6339,7 @@
         <v>-725519</v>
       </c>
       <c r="D382" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -6353,7 +6353,7 @@
         <v>563098</v>
       </c>
       <c r="D383" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -6367,7 +6367,7 @@
         <v>166027</v>
       </c>
       <c r="D384" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -6381,7 +6381,7 @@
         <v>-291810</v>
       </c>
       <c r="D385" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -6395,7 +6395,7 @@
         <v>1082879</v>
       </c>
       <c r="D386" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -6409,7 +6409,7 @@
         <v>639245</v>
       </c>
       <c r="D387" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -6423,7 +6423,7 @@
         <v>734704</v>
       </c>
       <c r="D388" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -6437,7 +6437,7 @@
         <v>-823131</v>
       </c>
       <c r="D389" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6451,7 +6451,7 @@
         <v>-1290458</v>
       </c>
       <c r="D390" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -6465,7 +6465,7 @@
         <v>-297979</v>
       </c>
       <c r="D391" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -6479,7 +6479,7 @@
         <v>1380162</v>
       </c>
       <c r="D392" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -6493,7 +6493,7 @@
         <v>590233</v>
       </c>
       <c r="D393" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -6507,7 +6507,7 @@
         <v>-657002</v>
       </c>
       <c r="D394" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -6521,7 +6521,7 @@
         <v>-1290522</v>
       </c>
       <c r="D395" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -6535,7 +6535,7 @@
         <v>90125</v>
       </c>
       <c r="D396" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -6549,7 +6549,7 @@
         <v>-794155</v>
       </c>
       <c r="D397" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -6563,7 +6563,7 @@
         <v>-374275</v>
       </c>
       <c r="D398" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -6577,7 +6577,7 @@
         <v>-171366</v>
       </c>
       <c r="D399" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -6591,7 +6591,7 @@
         <v>647855</v>
       </c>
       <c r="D400" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6605,7 +6605,7 @@
         <v>811388</v>
       </c>
       <c r="D401" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -6619,7 +6619,7 @@
         <v>878712</v>
       </c>
       <c r="D402" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6633,7 +6633,7 @@
         <v>729284</v>
       </c>
       <c r="D403" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6647,7 +6647,7 @@
         <v>-259150</v>
       </c>
       <c r="D404" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6661,7 +6661,7 @@
         <v>1369873</v>
       </c>
       <c r="D405" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6675,7 +6675,7 @@
         <v>-36054</v>
       </c>
       <c r="D406" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6689,7 +6689,7 @@
         <v>-936422</v>
       </c>
       <c r="D407" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6703,7 +6703,7 @@
         <v>-372086</v>
       </c>
       <c r="D408" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6717,7 +6717,7 @@
         <v>-12786</v>
       </c>
       <c r="D409" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6731,7 +6731,7 @@
         <v>-619916</v>
       </c>
       <c r="D410" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6745,7 +6745,7 @@
         <v>-882738</v>
       </c>
       <c r="D411" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6759,7 +6759,7 @@
         <v>1161972</v>
       </c>
       <c r="D412" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6773,7 +6773,7 @@
         <v>-378671</v>
       </c>
       <c r="D413" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6787,7 +6787,7 @@
         <v>36564</v>
       </c>
       <c r="D414" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6801,7 +6801,7 @@
         <v>811214</v>
       </c>
       <c r="D415" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6815,7 +6815,7 @@
         <v>-91000</v>
       </c>
       <c r="D416" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6829,7 +6829,7 @@
         <v>-956858</v>
       </c>
       <c r="D417" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6843,7 +6843,7 @@
         <v>389717</v>
       </c>
       <c r="D418" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6857,7 +6857,7 @@
         <v>-1237922</v>
       </c>
       <c r="D419" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6871,7 +6871,7 @@
         <v>-1369911</v>
       </c>
       <c r="D420" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6885,7 +6885,7 @@
         <v>-1036987</v>
       </c>
       <c r="D421" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6899,7 +6899,7 @@
         <v>-820338</v>
       </c>
       <c r="D422" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6913,7 +6913,7 @@
         <v>734833</v>
       </c>
       <c r="D423" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6927,7 +6927,7 @@
         <v>-1371183</v>
       </c>
       <c r="D424" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6941,7 +6941,7 @@
         <v>-1264298</v>
       </c>
       <c r="D425" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6955,7 +6955,7 @@
         <v>329975</v>
       </c>
       <c r="D426" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6969,7 +6969,7 @@
         <v>205600</v>
       </c>
       <c r="D427" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6983,7 +6983,7 @@
         <v>51630</v>
       </c>
       <c r="D428" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6997,7 +6997,7 @@
         <v>357046</v>
       </c>
       <c r="D429" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7011,7 +7011,7 @@
         <v>-173092</v>
       </c>
       <c r="D430" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7025,7 +7025,7 @@
         <v>-85026</v>
       </c>
       <c r="D431" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7039,7 +7039,7 @@
         <v>-247751</v>
       </c>
       <c r="D432" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7053,7 +7053,7 @@
         <v>-1301785</v>
       </c>
       <c r="D433" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7067,7 +7067,7 @@
         <v>-163839</v>
       </c>
       <c r="D434" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7081,7 +7081,7 @@
         <v>915392</v>
       </c>
       <c r="D435" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7095,7 +7095,7 @@
         <v>-63444</v>
       </c>
       <c r="D436" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7109,7 +7109,7 @@
         <v>272165</v>
       </c>
       <c r="D437" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7123,7 +7123,7 @@
         <v>-268628</v>
       </c>
       <c r="D438" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7137,7 +7137,7 @@
         <v>361442</v>
       </c>
       <c r="D439" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7151,7 +7151,7 @@
         <v>-1143956</v>
       </c>
       <c r="D440" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7165,7 +7165,7 @@
         <v>-133934</v>
       </c>
       <c r="D441" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7179,7 +7179,7 @@
         <v>1132980</v>
       </c>
       <c r="D442" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7193,7 +7193,7 @@
         <v>-830137</v>
       </c>
       <c r="D443" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -7207,7 +7207,7 @@
         <v>570702</v>
       </c>
       <c r="D444" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -7221,7 +7221,7 @@
         <v>117485</v>
       </c>
       <c r="D445" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7235,7 +7235,7 @@
         <v>-1411836</v>
       </c>
       <c r="D446" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7249,7 +7249,7 @@
         <v>-1229493</v>
       </c>
       <c r="D447" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7263,7 +7263,7 @@
         <v>-837003</v>
       </c>
       <c r="D448" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -7277,7 +7277,7 @@
         <v>56938</v>
       </c>
       <c r="D449" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -7291,7 +7291,7 @@
         <v>378870</v>
       </c>
       <c r="D450" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -7305,7 +7305,7 @@
         <v>-125536</v>
       </c>
       <c r="D451" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -7319,7 +7319,7 @@
         <v>56194</v>
       </c>
       <c r="D452" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -7333,7 +7333,7 @@
         <v>-708712</v>
       </c>
       <c r="D453" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -7347,7 +7347,7 @@
         <v>-212213</v>
       </c>
       <c r="D454" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -7361,7 +7361,7 @@
         <v>-878333</v>
       </c>
       <c r="D455" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -7375,7 +7375,7 @@
         <v>-273915</v>
       </c>
       <c r="D456" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -7389,7 +7389,7 @@
         <v>-419369</v>
       </c>
       <c r="D457" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -7403,7 +7403,7 @@
         <v>408374</v>
       </c>
       <c r="D458" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7417,7 +7417,7 @@
         <v>-974307</v>
       </c>
       <c r="D459" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -7431,7 +7431,7 @@
         <v>-86537</v>
       </c>
       <c r="D460" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -7445,7 +7445,7 @@
         <v>-1342212</v>
       </c>
       <c r="D461" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -7459,7 +7459,7 @@
         <v>1152393</v>
       </c>
       <c r="D462" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -7473,7 +7473,7 @@
         <v>-843714</v>
       </c>
       <c r="D463" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -7487,7 +7487,7 @@
         <v>-137613</v>
       </c>
       <c r="D464" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -7501,7 +7501,7 @@
         <v>843907</v>
       </c>
       <c r="D465" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -7515,7 +7515,7 @@
         <v>688949</v>
       </c>
       <c r="D466" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -7529,7 +7529,7 @@
         <v>793580</v>
       </c>
       <c r="D467" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -7543,7 +7543,7 @@
         <v>-575879</v>
       </c>
       <c r="D468" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7557,7 +7557,7 @@
         <v>1353519</v>
       </c>
       <c r="D469" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -7571,7 +7571,7 @@
         <v>1095692</v>
       </c>
       <c r="D470" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -7585,7 +7585,7 @@
         <v>1391461</v>
       </c>
       <c r="D471" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -7599,7 +7599,7 @@
         <v>1019408</v>
       </c>
       <c r="D472" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -7613,7 +7613,7 @@
         <v>627718</v>
       </c>
       <c r="D473" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -7627,7 +7627,7 @@
         <v>-837766</v>
       </c>
       <c r="D474" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7641,7 +7641,7 @@
         <v>-954107</v>
       </c>
       <c r="D475" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7655,7 +7655,7 @@
         <v>-681324</v>
       </c>
       <c r="D476" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7669,7 +7669,7 @@
         <v>-979302</v>
       </c>
       <c r="D477" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7683,7 +7683,7 @@
         <v>-998232</v>
       </c>
       <c r="D478" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7697,7 +7697,7 @@
         <v>-873081</v>
       </c>
       <c r="D479" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7711,7 +7711,7 @@
         <v>96103</v>
       </c>
       <c r="D480" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7725,7 +7725,7 @@
         <v>-356858</v>
       </c>
       <c r="D481" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7739,7 +7739,7 @@
         <v>-896082</v>
       </c>
       <c r="D482" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7753,7 +7753,7 @@
         <v>-421207</v>
       </c>
       <c r="D483" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7767,7 +7767,7 @@
         <v>73633</v>
       </c>
       <c r="D484" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7781,7 +7781,7 @@
         <v>-697209</v>
       </c>
       <c r="D485" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7795,7 +7795,7 @@
         <v>575937</v>
       </c>
       <c r="D486" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7809,7 +7809,7 @@
         <v>-201695</v>
       </c>
       <c r="D487" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7823,7 +7823,7 @@
         <v>434902</v>
       </c>
       <c r="D488" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7837,7 +7837,7 @@
         <v>-483563</v>
       </c>
       <c r="D489" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7851,7 +7851,7 @@
         <v>1264953</v>
       </c>
       <c r="D490" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7865,7 +7865,7 @@
         <v>197006</v>
       </c>
       <c r="D491" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7879,7 +7879,7 @@
         <v>147772</v>
       </c>
       <c r="D492" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7893,7 +7893,7 @@
         <v>959039</v>
       </c>
       <c r="D493" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7907,7 +7907,7 @@
         <v>1033312</v>
       </c>
       <c r="D494" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7921,7 +7921,7 @@
         <v>-38060</v>
       </c>
       <c r="D495" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7935,7 +7935,7 @@
         <v>1054159</v>
       </c>
       <c r="D496" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7949,7 +7949,7 @@
         <v>-1200806</v>
       </c>
       <c r="D497" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7963,7 +7963,7 @@
         <v>-424302</v>
       </c>
       <c r="D498" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7977,7 +7977,7 @@
         <v>805045</v>
       </c>
       <c r="D499" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7991,7 +7991,7 @@
         <v>-904026</v>
       </c>
       <c r="D500" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8005,7 +8005,7 @@
         <v>-169543</v>
       </c>
       <c r="D501" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8019,7 +8019,7 @@
         <v>1374669</v>
       </c>
       <c r="D502" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8033,7 +8033,7 @@
         <v>-873920</v>
       </c>
       <c r="D503" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8047,7 +8047,7 @@
         <v>1240861</v>
       </c>
       <c r="D504" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8061,7 +8061,7 @@
         <v>722308</v>
       </c>
       <c r="D505" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8075,7 +8075,7 @@
         <v>563003</v>
       </c>
       <c r="D506" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -8089,7 +8089,7 @@
         <v>303729</v>
       </c>
       <c r="D507" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -8103,7 +8103,7 @@
         <v>-684460</v>
       </c>
       <c r="D508" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -8117,7 +8117,7 @@
         <v>807827</v>
       </c>
       <c r="D509" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -8131,7 +8131,7 @@
         <v>388031</v>
       </c>
       <c r="D510" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -8145,7 +8145,7 @@
         <v>708994</v>
       </c>
       <c r="D511" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8159,7 +8159,7 @@
         <v>-1322930</v>
       </c>
       <c r="D512" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -8173,7 +8173,7 @@
         <v>-378286</v>
       </c>
       <c r="D513" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -8187,7 +8187,7 @@
         <v>888843</v>
       </c>
       <c r="D514" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -8201,7 +8201,7 @@
         <v>-1492530</v>
       </c>
       <c r="D515" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8215,7 +8215,7 @@
         <v>525878</v>
       </c>
       <c r="D516" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8229,7 +8229,7 @@
         <v>-669113</v>
       </c>
       <c r="D517" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -8243,7 +8243,7 @@
         <v>-151160</v>
       </c>
       <c r="D518" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -8257,7 +8257,7 @@
         <v>-529555</v>
       </c>
       <c r="D519" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -8271,7 +8271,7 @@
         <v>779465</v>
       </c>
       <c r="D520" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -8285,7 +8285,7 @@
         <v>-995438</v>
       </c>
       <c r="D521" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -8299,7 +8299,7 @@
         <v>-1299989</v>
       </c>
       <c r="D522" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -8313,7 +8313,7 @@
         <v>-1322509</v>
       </c>
       <c r="D523" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8327,7 +8327,7 @@
         <v>1280027</v>
       </c>
       <c r="D524" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -8341,7 +8341,7 @@
         <v>-771880</v>
       </c>
       <c r="D525" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -8355,7 +8355,7 @@
         <v>-414491</v>
       </c>
       <c r="D526" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -8369,7 +8369,7 @@
         <v>-563853</v>
       </c>
       <c r="D527" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -8383,7 +8383,7 @@
         <v>52532</v>
       </c>
       <c r="D528" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -8397,7 +8397,7 @@
         <v>1420682</v>
       </c>
       <c r="D529" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8411,7 +8411,7 @@
         <v>1157204</v>
       </c>
       <c r="D530" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -8425,7 +8425,7 @@
         <v>435327</v>
       </c>
       <c r="D531" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -8439,7 +8439,7 @@
         <v>1096113</v>
       </c>
       <c r="D532" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -8453,7 +8453,7 @@
         <v>-384344</v>
       </c>
       <c r="D533" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -8467,7 +8467,7 @@
         <v>-493461</v>
       </c>
       <c r="D534" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -8481,7 +8481,7 @@
         <v>-222635</v>
       </c>
       <c r="D535" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -8495,7 +8495,7 @@
         <v>1321343</v>
       </c>
       <c r="D536" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -8509,7 +8509,7 @@
         <v>1080470</v>
       </c>
       <c r="D537" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -8523,7 +8523,7 @@
         <v>-224998</v>
       </c>
       <c r="D538" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -8537,7 +8537,7 @@
         <v>-360938</v>
       </c>
       <c r="D539" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -8551,7 +8551,7 @@
         <v>-1303213</v>
       </c>
       <c r="D540" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -8565,7 +8565,7 @@
         <v>84298</v>
       </c>
       <c r="D541" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -8579,7 +8579,7 @@
         <v>18926</v>
       </c>
       <c r="D542" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8593,7 +8593,7 @@
         <v>1331982</v>
       </c>
       <c r="D543" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -8607,7 +8607,7 @@
         <v>-453394</v>
       </c>
       <c r="D544" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8621,7 +8621,7 @@
         <v>-80734</v>
       </c>
       <c r="D545" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8635,7 +8635,7 @@
         <v>1335301</v>
       </c>
       <c r="D546" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8649,7 +8649,7 @@
         <v>-119930</v>
       </c>
       <c r="D547" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8663,7 +8663,7 @@
         <v>1091019</v>
       </c>
       <c r="D548" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -8677,7 +8677,7 @@
         <v>495074</v>
       </c>
       <c r="D549" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -8691,7 +8691,7 @@
         <v>879058</v>
       </c>
       <c r="D550" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8705,7 +8705,7 @@
         <v>-566808</v>
       </c>
       <c r="D551" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8719,7 +8719,7 @@
         <v>126673</v>
       </c>
       <c r="D552" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -8733,7 +8733,7 @@
         <v>-1159182</v>
       </c>
       <c r="D553" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -8747,7 +8747,7 @@
         <v>368499</v>
       </c>
       <c r="D554" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -8761,7 +8761,7 @@
         <v>531701</v>
       </c>
       <c r="D555" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -8775,7 +8775,7 @@
         <v>-1316251</v>
       </c>
       <c r="D556" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -8789,7 +8789,7 @@
         <v>-295722</v>
       </c>
       <c r="D557" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -8803,7 +8803,7 @@
         <v>-276531</v>
       </c>
       <c r="D558" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -8817,7 +8817,7 @@
         <v>1318695</v>
       </c>
       <c r="D559" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -8831,7 +8831,7 @@
         <v>960073</v>
       </c>
       <c r="D560" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -8845,7 +8845,7 @@
         <v>-891361</v>
       </c>
       <c r="D561" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -8859,7 +8859,7 @@
         <v>-548262</v>
       </c>
       <c r="D562" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -8873,7 +8873,7 @@
         <v>273764</v>
       </c>
       <c r="D563" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -8887,7 +8887,7 @@
         <v>559748</v>
       </c>
       <c r="D564" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -8901,7 +8901,7 @@
         <v>-723105</v>
       </c>
       <c r="D565" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -8915,7 +8915,7 @@
         <v>1468951</v>
       </c>
       <c r="D566" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -8929,7 +8929,7 @@
         <v>-700262</v>
       </c>
       <c r="D567" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -8943,7 +8943,7 @@
         <v>-371639</v>
       </c>
       <c r="D568" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -8957,7 +8957,7 @@
         <v>1198215</v>
       </c>
       <c r="D569" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -8971,7 +8971,7 @@
         <v>348879</v>
       </c>
       <c r="D570" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -8985,7 +8985,7 @@
         <v>-852743</v>
       </c>
       <c r="D571" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -8999,7 +8999,7 @@
         <v>-923810</v>
       </c>
       <c r="D572" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -9013,7 +9013,7 @@
         <v>349887</v>
       </c>
       <c r="D573" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -9027,7 +9027,7 @@
         <v>-483034</v>
       </c>
       <c r="D574" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -9041,7 +9041,7 @@
         <v>-707845</v>
       </c>
       <c r="D575" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -9055,7 +9055,7 @@
         <v>1102702</v>
       </c>
       <c r="D576" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -9069,7 +9069,7 @@
         <v>1230748</v>
       </c>
       <c r="D577" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -9083,7 +9083,7 @@
         <v>-1272129</v>
       </c>
       <c r="D578" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -9097,7 +9097,7 @@
         <v>405155</v>
       </c>
       <c r="D579" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -9111,7 +9111,7 @@
         <v>-88052</v>
       </c>
       <c r="D580" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -9125,7 +9125,7 @@
         <v>255836</v>
       </c>
       <c r="D581" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -9139,7 +9139,7 @@
         <v>-416431</v>
       </c>
       <c r="D582" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -9153,7 +9153,7 @@
         <v>-508680</v>
       </c>
       <c r="D583" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -9167,7 +9167,7 @@
         <v>-1418510</v>
       </c>
       <c r="D584" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -9181,7 +9181,7 @@
         <v>1160542</v>
       </c>
       <c r="D585" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -9195,7 +9195,7 @@
         <v>-909165</v>
       </c>
       <c r="D586" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -9209,7 +9209,7 @@
         <v>53974</v>
       </c>
       <c r="D587" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -9223,7 +9223,7 @@
         <v>806485</v>
       </c>
       <c r="D588" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -9237,7 +9237,7 @@
         <v>365979</v>
       </c>
       <c r="D589" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -9251,7 +9251,7 @@
         <v>-1377511</v>
       </c>
       <c r="D590" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -9265,7 +9265,7 @@
         <v>734244</v>
       </c>
       <c r="D591" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -9279,7 +9279,7 @@
         <v>-794840</v>
       </c>
       <c r="D592" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -9293,7 +9293,7 @@
         <v>-292754</v>
       </c>
       <c r="D593" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -9307,7 +9307,7 @@
         <v>437685</v>
       </c>
       <c r="D594" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -9321,7 +9321,7 @@
         <v>1063578</v>
       </c>
       <c r="D595" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -9335,7 +9335,7 @@
         <v>-755307</v>
       </c>
       <c r="D596" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -9349,7 +9349,7 @@
         <v>1473096</v>
       </c>
       <c r="D597" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -9363,7 +9363,7 @@
         <v>-155836</v>
       </c>
       <c r="D598" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -9377,7 +9377,7 @@
         <v>170979</v>
       </c>
       <c r="D599" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -9391,7 +9391,7 @@
         <v>137847</v>
       </c>
       <c r="D600" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -9405,7 +9405,7 @@
         <v>1368048</v>
       </c>
       <c r="D601" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -9419,7 +9419,7 @@
         <v>-1307177</v>
       </c>
       <c r="D602" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -9433,7 +9433,7 @@
         <v>350549</v>
       </c>
       <c r="D603" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -9447,7 +9447,7 @@
         <v>226607</v>
       </c>
       <c r="D604" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -9461,7 +9461,7 @@
         <v>-354871</v>
       </c>
       <c r="D605" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -9475,7 +9475,7 @@
         <v>519885</v>
       </c>
       <c r="D606" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -9489,7 +9489,7 @@
         <v>-700316</v>
       </c>
       <c r="D607" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -9503,7 +9503,7 @@
         <v>-966248</v>
       </c>
       <c r="D608" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -9517,7 +9517,7 @@
         <v>-333467</v>
       </c>
       <c r="D609" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -9531,7 +9531,7 @@
         <v>-44248</v>
       </c>
       <c r="D610" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -9545,7 +9545,7 @@
         <v>-931793</v>
       </c>
       <c r="D611" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -9559,7 +9559,7 @@
         <v>-1379798</v>
       </c>
       <c r="D612" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -9573,7 +9573,7 @@
         <v>-476434</v>
       </c>
       <c r="D613" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -9587,7 +9587,7 @@
         <v>798840</v>
       </c>
       <c r="D614" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -9601,7 +9601,7 @@
         <v>-166472</v>
       </c>
       <c r="D615" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9615,7 +9615,7 @@
         <v>-1145089</v>
       </c>
       <c r="D616" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -9629,7 +9629,7 @@
         <v>483494</v>
       </c>
       <c r="D617" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -9643,7 +9643,7 @@
         <v>300576</v>
       </c>
       <c r="D618" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -9657,7 +9657,7 @@
         <v>-1269182</v>
       </c>
       <c r="D619" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -9671,7 +9671,7 @@
         <v>-668487</v>
       </c>
       <c r="D620" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -9685,7 +9685,7 @@
         <v>-1114607</v>
       </c>
       <c r="D621" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -9699,7 +9699,7 @@
         <v>1303983</v>
       </c>
       <c r="D622" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -9713,7 +9713,7 @@
         <v>-68529</v>
       </c>
       <c r="D623" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -9727,7 +9727,7 @@
         <v>-1092030</v>
       </c>
       <c r="D624" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -9741,7 +9741,7 @@
         <v>421468</v>
       </c>
       <c r="D625" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -9755,7 +9755,7 @@
         <v>483858</v>
       </c>
       <c r="D626" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -9769,7 +9769,7 @@
         <v>-125745</v>
       </c>
       <c r="D627" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -9783,7 +9783,7 @@
         <v>1349052</v>
       </c>
       <c r="D628" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -9797,7 +9797,7 @@
         <v>1126467</v>
       </c>
       <c r="D629" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -9811,7 +9811,7 @@
         <v>-1476210</v>
       </c>
       <c r="D630" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -9825,7 +9825,7 @@
         <v>1397718</v>
       </c>
       <c r="D631" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -9839,7 +9839,7 @@
         <v>-1231187</v>
       </c>
       <c r="D632" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -9853,7 +9853,7 @@
         <v>843361</v>
       </c>
       <c r="D633" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -9867,7 +9867,7 @@
         <v>-249338</v>
       </c>
       <c r="D634" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -9881,7 +9881,7 @@
         <v>-232416</v>
       </c>
       <c r="D635" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -9895,7 +9895,7 @@
         <v>1108304</v>
       </c>
       <c r="D636" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -9909,7 +9909,7 @@
         <v>1439120</v>
       </c>
       <c r="D637" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -9923,7 +9923,7 @@
         <v>770442</v>
       </c>
       <c r="D638" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -9937,7 +9937,7 @@
         <v>-3683</v>
       </c>
       <c r="D639" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -9951,7 +9951,7 @@
         <v>-678984</v>
       </c>
       <c r="D640" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -9965,7 +9965,7 @@
         <v>-651104</v>
       </c>
       <c r="D641" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -9979,7 +9979,7 @@
         <v>615745</v>
       </c>
       <c r="D642" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -9993,7 +9993,7 @@
         <v>-1006527</v>
       </c>
       <c r="D643" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -10007,7 +10007,7 @@
         <v>-868126</v>
       </c>
       <c r="D644" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -10021,7 +10021,7 @@
         <v>-292391</v>
       </c>
       <c r="D645" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -10035,7 +10035,7 @@
         <v>1247385</v>
       </c>
       <c r="D646" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -10049,7 +10049,7 @@
         <v>130443</v>
       </c>
       <c r="D647" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -10063,7 +10063,7 @@
         <v>186289</v>
       </c>
       <c r="D648" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -10077,7 +10077,7 @@
         <v>284248</v>
       </c>
       <c r="D649" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -10091,7 +10091,7 @@
         <v>-1496876</v>
       </c>
       <c r="D650" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -10105,7 +10105,7 @@
         <v>-417574</v>
       </c>
       <c r="D651" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -10119,7 +10119,7 @@
         <v>-1385208</v>
       </c>
       <c r="D652" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -10133,7 +10133,7 @@
         <v>-1384912</v>
       </c>
       <c r="D653" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -10147,7 +10147,7 @@
         <v>-535466</v>
       </c>
       <c r="D654" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -10161,7 +10161,7 @@
         <v>-889600</v>
       </c>
       <c r="D655" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -10175,7 +10175,7 @@
         <v>146228</v>
       </c>
       <c r="D656" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -10189,7 +10189,7 @@
         <v>642784</v>
       </c>
       <c r="D657" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -10203,7 +10203,7 @@
         <v>167499</v>
       </c>
       <c r="D658" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -10217,7 +10217,7 @@
         <v>1489359</v>
       </c>
       <c r="D659" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -10231,7 +10231,7 @@
         <v>416038</v>
       </c>
       <c r="D660" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -10245,7 +10245,7 @@
         <v>-118431</v>
       </c>
       <c r="D661" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -10259,7 +10259,7 @@
         <v>-1182404</v>
       </c>
       <c r="D662" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -10273,7 +10273,7 @@
         <v>13951</v>
       </c>
       <c r="D663" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -10287,7 +10287,7 @@
         <v>-1350609</v>
       </c>
       <c r="D664" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -10301,7 +10301,7 @@
         <v>1454427</v>
       </c>
       <c r="D665" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -10315,7 +10315,7 @@
         <v>1308924</v>
       </c>
       <c r="D666" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -10329,7 +10329,7 @@
         <v>-410124</v>
       </c>
       <c r="D667" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -10343,7 +10343,7 @@
         <v>246780</v>
       </c>
       <c r="D668" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -10357,7 +10357,7 @@
         <v>1424493</v>
       </c>
       <c r="D669" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -10371,7 +10371,7 @@
         <v>840902</v>
       </c>
       <c r="D670" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -10385,7 +10385,7 @@
         <v>1006404</v>
       </c>
       <c r="D671" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -10399,7 +10399,7 @@
         <v>-579815</v>
       </c>
       <c r="D672" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -10413,7 +10413,7 @@
         <v>-1274150</v>
       </c>
       <c r="D673" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -10427,7 +10427,7 @@
         <v>1035739</v>
       </c>
       <c r="D674" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -10441,7 +10441,7 @@
         <v>-292532</v>
       </c>
       <c r="D675" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -10455,7 +10455,7 @@
         <v>1436659</v>
       </c>
       <c r="D676" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -10469,7 +10469,7 @@
         <v>-280289</v>
       </c>
       <c r="D677" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -10483,7 +10483,7 @@
         <v>426219</v>
       </c>
       <c r="D678" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -10497,7 +10497,7 @@
         <v>-249518</v>
       </c>
       <c r="D679" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -10511,7 +10511,7 @@
         <v>949548</v>
       </c>
       <c r="D680" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -10525,7 +10525,7 @@
         <v>-275459</v>
       </c>
       <c r="D681" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -10539,7 +10539,7 @@
         <v>786629</v>
       </c>
       <c r="D682" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -10553,7 +10553,7 @@
         <v>-362937</v>
       </c>
       <c r="D683" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -10567,7 +10567,7 @@
         <v>-1006887</v>
       </c>
       <c r="D684" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -10581,7 +10581,7 @@
         <v>-1286758</v>
       </c>
       <c r="D685" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -10595,7 +10595,7 @@
         <v>1081639</v>
       </c>
       <c r="D686" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -10609,7 +10609,7 @@
         <v>-860841</v>
       </c>
       <c r="D687" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -10623,7 +10623,7 @@
         <v>185255</v>
       </c>
       <c r="D688" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -10637,7 +10637,7 @@
         <v>1248871</v>
       </c>
       <c r="D689" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -10651,7 +10651,7 @@
         <v>870818</v>
       </c>
       <c r="D690" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -10665,7 +10665,7 @@
         <v>-454636</v>
       </c>
       <c r="D691" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -10679,7 +10679,7 @@
         <v>-874793</v>
       </c>
       <c r="D692" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -10693,7 +10693,7 @@
         <v>1104862</v>
       </c>
       <c r="D693" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -10707,7 +10707,7 @@
         <v>14004</v>
       </c>
       <c r="D694" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -10721,7 +10721,7 @@
         <v>-408871</v>
       </c>
       <c r="D695" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -10735,7 +10735,7 @@
         <v>-1415349</v>
       </c>
       <c r="D696" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -10749,7 +10749,7 @@
         <v>320874</v>
       </c>
       <c r="D697" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -10763,7 +10763,7 @@
         <v>-726220</v>
       </c>
       <c r="D698" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -10777,7 +10777,7 @@
         <v>-1106859</v>
       </c>
       <c r="D699" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -10791,7 +10791,7 @@
         <v>-895945</v>
       </c>
       <c r="D700" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -10805,7 +10805,7 @@
         <v>-429124</v>
       </c>
       <c r="D701" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -10819,7 +10819,7 @@
         <v>-871829</v>
       </c>
       <c r="D702" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -10833,7 +10833,7 @@
         <v>242475</v>
       </c>
       <c r="D703" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -10847,7 +10847,7 @@
         <v>-1064057</v>
       </c>
       <c r="D704" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -10861,7 +10861,7 @@
         <v>288857</v>
       </c>
       <c r="D705" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -10875,7 +10875,7 @@
         <v>-379162</v>
       </c>
       <c r="D706" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -10889,7 +10889,7 @@
         <v>1331838</v>
       </c>
       <c r="D707" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -10903,7 +10903,7 @@
         <v>-1392305</v>
       </c>
       <c r="D708" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -10917,7 +10917,7 @@
         <v>13910</v>
       </c>
       <c r="D709" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -10931,7 +10931,7 @@
         <v>1201690</v>
       </c>
       <c r="D710" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -10945,7 +10945,7 @@
         <v>-1497943</v>
       </c>
       <c r="D711" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -10959,7 +10959,7 @@
         <v>-127989</v>
       </c>
       <c r="D712" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -10973,7 +10973,7 @@
         <v>-1265369</v>
       </c>
       <c r="D713" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -10987,7 +10987,7 @@
         <v>558473</v>
       </c>
       <c r="D714" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -11001,7 +11001,7 @@
         <v>-953596</v>
       </c>
       <c r="D715" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -11015,7 +11015,7 @@
         <v>-1260887</v>
       </c>
       <c r="D716" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -11029,7 +11029,7 @@
         <v>-1064739</v>
       </c>
       <c r="D717" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -11043,7 +11043,7 @@
         <v>-793119</v>
       </c>
       <c r="D718" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -11057,7 +11057,7 @@
         <v>923496</v>
       </c>
       <c r="D719" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -11071,7 +11071,7 @@
         <v>-1153665</v>
       </c>
       <c r="D720" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -11085,7 +11085,7 @@
         <v>-978819</v>
       </c>
       <c r="D721" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -11099,7 +11099,7 @@
         <v>540583</v>
       </c>
       <c r="D722" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -11113,7 +11113,7 @@
         <v>1376969</v>
       </c>
       <c r="D723" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -11127,7 +11127,7 @@
         <v>-339416</v>
       </c>
       <c r="D724" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -11141,7 +11141,7 @@
         <v>713635</v>
       </c>
       <c r="D725" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -11155,7 +11155,7 @@
         <v>-1421373</v>
       </c>
       <c r="D726" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -11169,7 +11169,7 @@
         <v>-267628</v>
       </c>
       <c r="D727" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -11183,7 +11183,7 @@
         <v>-1467581</v>
       </c>
       <c r="D728" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -11197,7 +11197,7 @@
         <v>35058</v>
       </c>
       <c r="D729" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -11211,7 +11211,7 @@
         <v>397432</v>
       </c>
       <c r="D730" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -11225,7 +11225,7 @@
         <v>-999554</v>
       </c>
       <c r="D731" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -11239,7 +11239,7 @@
         <v>643031</v>
       </c>
       <c r="D732" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -11253,7 +11253,7 @@
         <v>141295</v>
       </c>
       <c r="D733" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -11267,7 +11267,7 @@
         <v>138073</v>
       </c>
       <c r="D734" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -11281,7 +11281,7 @@
         <v>940552</v>
       </c>
       <c r="D735" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -11295,7 +11295,7 @@
         <v>-945272</v>
       </c>
       <c r="D736" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -11309,7 +11309,7 @@
         <v>1376744</v>
       </c>
       <c r="D737" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -11323,7 +11323,7 @@
         <v>-195495</v>
       </c>
       <c r="D738" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -11337,7 +11337,7 @@
         <v>-545491</v>
       </c>
       <c r="D739" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -11351,7 +11351,7 @@
         <v>-810802</v>
       </c>
       <c r="D740" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -11365,7 +11365,7 @@
         <v>1361923</v>
       </c>
       <c r="D741" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -11379,7 +11379,7 @@
         <v>770573</v>
       </c>
       <c r="D742" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -11393,7 +11393,7 @@
         <v>31511</v>
       </c>
       <c r="D743" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -11407,7 +11407,7 @@
         <v>-252017</v>
       </c>
       <c r="D744" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -11421,7 +11421,7 @@
         <v>-175525</v>
       </c>
       <c r="D745" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -11435,7 +11435,7 @@
         <v>1305146</v>
       </c>
       <c r="D746" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -11449,7 +11449,7 @@
         <v>-341033</v>
       </c>
       <c r="D747" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -11463,7 +11463,7 @@
         <v>943230</v>
       </c>
       <c r="D748" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -11477,7 +11477,7 @@
         <v>-1451238</v>
       </c>
       <c r="D749" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -11491,7 +11491,7 @@
         <v>430829</v>
       </c>
       <c r="D750" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -11505,7 +11505,7 @@
         <v>-1488793</v>
       </c>
       <c r="D751" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -11519,7 +11519,7 @@
         <v>-1383316</v>
       </c>
       <c r="D752" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -11533,7 +11533,7 @@
         <v>-1139315</v>
       </c>
       <c r="D753" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -11547,7 +11547,7 @@
         <v>646887</v>
       </c>
       <c r="D754" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -11561,7 +11561,7 @@
         <v>-1162060</v>
       </c>
       <c r="D755" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -11575,7 +11575,7 @@
         <v>1314931</v>
       </c>
       <c r="D756" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -11589,7 +11589,7 @@
         <v>-72802</v>
       </c>
       <c r="D757" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -11603,7 +11603,7 @@
         <v>-407397</v>
       </c>
       <c r="D758" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -11617,7 +11617,7 @@
         <v>237563</v>
       </c>
       <c r="D759" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -11631,7 +11631,7 @@
         <v>956152</v>
       </c>
       <c r="D760" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -11645,7 +11645,7 @@
         <v>-569441</v>
       </c>
       <c r="D761" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -11659,7 +11659,7 @@
         <v>1280318</v>
       </c>
       <c r="D762" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -11673,7 +11673,7 @@
         <v>-986597</v>
       </c>
       <c r="D763" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -11687,7 +11687,7 @@
         <v>-876787</v>
       </c>
       <c r="D764" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -11701,7 +11701,7 @@
         <v>-909685</v>
       </c>
       <c r="D765" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -11715,7 +11715,7 @@
         <v>-77831</v>
       </c>
       <c r="D766" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11729,7 +11729,7 @@
         <v>28180</v>
       </c>
       <c r="D767" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11743,7 +11743,7 @@
         <v>-1019143</v>
       </c>
       <c r="D768" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -11757,7 +11757,7 @@
         <v>-807312</v>
       </c>
       <c r="D769" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -11771,7 +11771,7 @@
         <v>-36923</v>
       </c>
       <c r="D770" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -11785,7 +11785,7 @@
         <v>-913768</v>
       </c>
       <c r="D771" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -11799,7 +11799,7 @@
         <v>-446672</v>
       </c>
       <c r="D772" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -11813,7 +11813,7 @@
         <v>932998</v>
       </c>
       <c r="D773" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -11827,7 +11827,7 @@
         <v>950876</v>
       </c>
       <c r="D774" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -11841,7 +11841,7 @@
         <v>-758203</v>
       </c>
       <c r="D775" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -11855,7 +11855,7 @@
         <v>292609</v>
       </c>
       <c r="D776" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -11869,7 +11869,7 @@
         <v>-92706</v>
       </c>
       <c r="D777" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -11883,7 +11883,7 @@
         <v>693800</v>
       </c>
       <c r="D778" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -11897,7 +11897,7 @@
         <v>-528407</v>
       </c>
       <c r="D779" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -11911,7 +11911,7 @@
         <v>-811984</v>
       </c>
       <c r="D780" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -11925,7 +11925,7 @@
         <v>1262254</v>
       </c>
       <c r="D781" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -11939,7 +11939,7 @@
         <v>-1352571</v>
       </c>
       <c r="D782" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -11953,7 +11953,7 @@
         <v>-269728</v>
       </c>
       <c r="D783" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -11967,7 +11967,7 @@
         <v>899581</v>
       </c>
       <c r="D784" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -11981,7 +11981,7 @@
         <v>800775</v>
       </c>
       <c r="D785" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -11995,7 +11995,7 @@
         <v>-613297</v>
       </c>
       <c r="D786" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -12009,7 +12009,7 @@
         <v>251260</v>
       </c>
       <c r="D787" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -12023,7 +12023,7 @@
         <v>484365</v>
       </c>
       <c r="D788" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -12037,7 +12037,7 @@
         <v>835437</v>
       </c>
       <c r="D789" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -12051,7 +12051,7 @@
         <v>505846</v>
       </c>
       <c r="D790" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12065,7 +12065,7 @@
         <v>-964866</v>
       </c>
       <c r="D791" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -12079,7 +12079,7 @@
         <v>-576099</v>
       </c>
       <c r="D792" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -12093,7 +12093,7 @@
         <v>-1318100</v>
       </c>
       <c r="D793" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -12107,7 +12107,7 @@
         <v>481567</v>
       </c>
       <c r="D794" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12121,7 +12121,7 @@
         <v>525148</v>
       </c>
       <c r="D795" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12135,7 +12135,7 @@
         <v>1437647</v>
       </c>
       <c r="D796" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -12149,7 +12149,7 @@
         <v>-1222064</v>
       </c>
       <c r="D797" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -12163,7 +12163,7 @@
         <v>681170</v>
       </c>
       <c r="D798" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -12177,7 +12177,7 @@
         <v>-760666</v>
       </c>
       <c r="D799" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -12191,7 +12191,7 @@
         <v>914552</v>
       </c>
       <c r="D800" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -12205,7 +12205,7 @@
         <v>-1443855</v>
       </c>
       <c r="D801" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12219,7 +12219,7 @@
         <v>-344095</v>
       </c>
       <c r="D802" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -12233,7 +12233,7 @@
         <v>837113</v>
       </c>
       <c r="D803" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -12247,7 +12247,7 @@
         <v>1468163</v>
       </c>
       <c r="D804" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -12261,7 +12261,7 @@
         <v>-1352321</v>
       </c>
       <c r="D805" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -12275,7 +12275,7 @@
         <v>-1069385</v>
       </c>
       <c r="D806" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -12289,7 +12289,7 @@
         <v>-1245486</v>
       </c>
       <c r="D807" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -12303,7 +12303,7 @@
         <v>-1082502</v>
       </c>
       <c r="D808" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12317,7 +12317,7 @@
         <v>-1477632</v>
       </c>
       <c r="D809" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -12331,7 +12331,7 @@
         <v>24244</v>
       </c>
       <c r="D810" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -12345,7 +12345,7 @@
         <v>-1011194</v>
       </c>
       <c r="D811" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -12359,7 +12359,7 @@
         <v>-550379</v>
       </c>
       <c r="D812" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -12373,7 +12373,7 @@
         <v>209355</v>
       </c>
       <c r="D813" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -12387,7 +12387,7 @@
         <v>1372971</v>
       </c>
       <c r="D814" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -12401,7 +12401,7 @@
         <v>1218197</v>
       </c>
       <c r="D815" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -12415,7 +12415,7 @@
         <v>-657457</v>
       </c>
       <c r="D816" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -12429,7 +12429,7 @@
         <v>250338</v>
       </c>
       <c r="D817" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -12443,7 +12443,7 @@
         <v>-197504</v>
       </c>
       <c r="D818" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -12457,7 +12457,7 @@
         <v>89047</v>
       </c>
       <c r="D819" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -12471,7 +12471,7 @@
         <v>-538695</v>
       </c>
       <c r="D820" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -12485,7 +12485,7 @@
         <v>-1222125</v>
       </c>
       <c r="D821" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -12499,7 +12499,7 @@
         <v>-128742</v>
       </c>
       <c r="D822" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -12513,7 +12513,7 @@
         <v>-496206</v>
       </c>
       <c r="D823" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -12527,7 +12527,7 @@
         <v>-711005</v>
       </c>
       <c r="D824" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -12541,7 +12541,7 @@
         <v>243854</v>
       </c>
       <c r="D825" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -12555,7 +12555,7 @@
         <v>-1236484</v>
       </c>
       <c r="D826" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -12569,7 +12569,7 @@
         <v>1383971</v>
       </c>
       <c r="D827" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -12583,7 +12583,7 @@
         <v>-291348</v>
       </c>
       <c r="D828" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -12597,7 +12597,7 @@
         <v>497203</v>
       </c>
       <c r="D829" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -12611,7 +12611,7 @@
         <v>167388</v>
       </c>
       <c r="D830" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -12625,7 +12625,7 @@
         <v>-697371</v>
       </c>
       <c r="D831" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -12639,7 +12639,7 @@
         <v>1497514</v>
       </c>
       <c r="D832" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -12653,7 +12653,7 @@
         <v>484956</v>
       </c>
       <c r="D833" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -12667,7 +12667,7 @@
         <v>198148</v>
       </c>
       <c r="D834" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -12681,7 +12681,7 @@
         <v>-1289620</v>
       </c>
       <c r="D835" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -12695,7 +12695,7 @@
         <v>-602710</v>
       </c>
       <c r="D836" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -12709,7 +12709,7 @@
         <v>-633308</v>
       </c>
       <c r="D837" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -12723,7 +12723,7 @@
         <v>1067525</v>
       </c>
       <c r="D838" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -12737,7 +12737,7 @@
         <v>-1440515</v>
       </c>
       <c r="D839" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -12751,7 +12751,7 @@
         <v>49613</v>
       </c>
       <c r="D840" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -12765,7 +12765,7 @@
         <v>342747</v>
       </c>
       <c r="D841" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -12779,7 +12779,7 @@
         <v>583528</v>
       </c>
       <c r="D842" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -12793,7 +12793,7 @@
         <v>1308541</v>
       </c>
       <c r="D843" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -12807,7 +12807,7 @@
         <v>-769513</v>
       </c>
       <c r="D844" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -12821,7 +12821,7 @@
         <v>-471511</v>
       </c>
       <c r="D845" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -12835,7 +12835,7 @@
         <v>525899</v>
       </c>
       <c r="D846" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -12849,7 +12849,7 @@
         <v>-84053</v>
       </c>
       <c r="D847" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -12863,7 +12863,7 @@
         <v>-739446</v>
       </c>
       <c r="D848" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -12877,7 +12877,7 @@
         <v>889430</v>
       </c>
       <c r="D849" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -12891,7 +12891,7 @@
         <v>119601</v>
       </c>
       <c r="D850" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -12905,7 +12905,7 @@
         <v>-405911</v>
       </c>
       <c r="D851" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -12919,7 +12919,7 @@
         <v>930936</v>
       </c>
       <c r="D852" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -12933,7 +12933,7 @@
         <v>985207</v>
       </c>
       <c r="D853" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -12947,7 +12947,7 @@
         <v>-781322</v>
       </c>
       <c r="D854" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -12961,7 +12961,7 @@
         <v>-553183</v>
       </c>
       <c r="D855" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -12975,7 +12975,7 @@
         <v>-327475</v>
       </c>
       <c r="D856" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -12989,7 +12989,7 @@
         <v>2498</v>
       </c>
       <c r="D857" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -13003,7 +13003,7 @@
         <v>-755101</v>
       </c>
       <c r="D858" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -13017,7 +13017,7 @@
         <v>-1129980</v>
       </c>
       <c r="D859" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -13031,7 +13031,7 @@
         <v>-187972</v>
       </c>
       <c r="D860" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -13045,7 +13045,7 @@
         <v>-1190258</v>
       </c>
       <c r="D861" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -13059,7 +13059,7 @@
         <v>-1178623</v>
       </c>
       <c r="D862" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -13073,7 +13073,7 @@
         <v>1364793</v>
       </c>
       <c r="D863" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -13087,7 +13087,7 @@
         <v>-959778</v>
       </c>
       <c r="D864" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -13101,7 +13101,7 @@
         <v>-569113</v>
       </c>
       <c r="D865" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -13115,7 +13115,7 @@
         <v>909762</v>
       </c>
       <c r="D866" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -13129,7 +13129,7 @@
         <v>-1011823</v>
       </c>
       <c r="D867" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -13143,7 +13143,7 @@
         <v>-1346983</v>
       </c>
       <c r="D868" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -13157,7 +13157,7 @@
         <v>-830321</v>
       </c>
       <c r="D869" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -13171,7 +13171,7 @@
         <v>-1134975</v>
       </c>
       <c r="D870" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -13185,7 +13185,7 @@
         <v>93740</v>
       </c>
       <c r="D871" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -13199,7 +13199,7 @@
         <v>367651</v>
       </c>
       <c r="D872" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -13213,7 +13213,7 @@
         <v>878153</v>
       </c>
       <c r="D873" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -13227,7 +13227,7 @@
         <v>766164</v>
       </c>
       <c r="D874" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -13241,7 +13241,7 @@
         <v>485971</v>
       </c>
       <c r="D875" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -13255,7 +13255,7 @@
         <v>-986238</v>
       </c>
       <c r="D876" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -13269,7 +13269,7 @@
         <v>818160</v>
       </c>
       <c r="D877" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -13283,7 +13283,7 @@
         <v>931086</v>
       </c>
       <c r="D878" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -13297,7 +13297,7 @@
         <v>264978</v>
       </c>
       <c r="D879" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -13311,7 +13311,7 @@
         <v>-737606</v>
       </c>
       <c r="D880" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -13325,7 +13325,7 @@
         <v>-367881</v>
       </c>
       <c r="D881" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -13339,7 +13339,7 @@
         <v>-971744</v>
       </c>
       <c r="D882" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -13353,7 +13353,7 @@
         <v>549678</v>
       </c>
       <c r="D883" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -13367,7 +13367,7 @@
         <v>-659534</v>
       </c>
       <c r="D884" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -13381,7 +13381,7 @@
         <v>977754</v>
       </c>
       <c r="D885" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -13395,7 +13395,7 @@
         <v>-1190499</v>
       </c>
       <c r="D886" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -13409,7 +13409,7 @@
         <v>339468</v>
       </c>
       <c r="D887" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -13423,7 +13423,7 @@
         <v>-202787</v>
       </c>
       <c r="D888" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -13437,7 +13437,7 @@
         <v>-1449431</v>
       </c>
       <c r="D889" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -13451,7 +13451,7 @@
         <v>570426</v>
       </c>
       <c r="D890" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -13465,7 +13465,7 @@
         <v>1128931</v>
       </c>
       <c r="D891" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -13479,7 +13479,7 @@
         <v>-263690</v>
       </c>
       <c r="D892" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -13493,7 +13493,7 @@
         <v>-677289</v>
       </c>
       <c r="D893" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -13507,7 +13507,7 @@
         <v>39206</v>
       </c>
       <c r="D894" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -13521,7 +13521,7 @@
         <v>-184927</v>
       </c>
       <c r="D895" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -13535,7 +13535,7 @@
         <v>1194808</v>
       </c>
       <c r="D896" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -13549,7 +13549,7 @@
         <v>-481619</v>
       </c>
       <c r="D897" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -13563,7 +13563,7 @@
         <v>751622</v>
       </c>
       <c r="D898" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -13577,7 +13577,7 @@
         <v>1187632</v>
       </c>
       <c r="D899" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -13591,7 +13591,7 @@
         <v>1213834</v>
       </c>
       <c r="D900" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -13605,7 +13605,7 @@
         <v>-1065117</v>
       </c>
       <c r="D901" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -13619,7 +13619,7 @@
         <v>-85777</v>
       </c>
       <c r="D902" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -13633,7 +13633,7 @@
         <v>648701</v>
       </c>
       <c r="D903" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -13647,7 +13647,7 @@
         <v>-208241</v>
       </c>
       <c r="D904" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -13661,7 +13661,7 @@
         <v>1192537</v>
       </c>
       <c r="D905" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -13675,7 +13675,7 @@
         <v>1421039</v>
       </c>
       <c r="D906" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -13689,7 +13689,7 @@
         <v>-900906</v>
       </c>
       <c r="D907" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -13703,7 +13703,7 @@
         <v>989509</v>
       </c>
       <c r="D908" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -13717,7 +13717,7 @@
         <v>-942488</v>
       </c>
       <c r="D909" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -13731,7 +13731,7 @@
         <v>-1444221</v>
       </c>
       <c r="D910" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -13745,7 +13745,7 @@
         <v>1334170</v>
       </c>
       <c r="D911" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="912" spans="1:4">
@@ -13759,7 +13759,7 @@
         <v>-851632</v>
       </c>
       <c r="D912" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -13773,7 +13773,7 @@
         <v>506106</v>
       </c>
       <c r="D913" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -13787,7 +13787,7 @@
         <v>-105383</v>
       </c>
       <c r="D914" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -13801,7 +13801,7 @@
         <v>-1112076</v>
       </c>
       <c r="D915" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -13815,7 +13815,7 @@
         <v>1335035</v>
       </c>
       <c r="D916" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -13829,7 +13829,7 @@
         <v>-1326980</v>
       </c>
       <c r="D917" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -13843,7 +13843,7 @@
         <v>-1326966</v>
       </c>
       <c r="D918" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="919" spans="1:4">
@@ -13857,7 +13857,7 @@
         <v>1392519</v>
       </c>
       <c r="D919" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="920" spans="1:4">
@@ -13871,7 +13871,7 @@
         <v>412111</v>
       </c>
       <c r="D920" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="921" spans="1:4">
@@ -13885,7 +13885,7 @@
         <v>647071</v>
       </c>
       <c r="D921" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -13899,7 +13899,7 @@
         <v>-340694</v>
       </c>
       <c r="D922" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="923" spans="1:4">
@@ -13913,7 +13913,7 @@
         <v>396585</v>
       </c>
       <c r="D923" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="924" spans="1:4">
@@ -13927,7 +13927,7 @@
         <v>-144313</v>
       </c>
       <c r="D924" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="925" spans="1:4">
@@ -13941,7 +13941,7 @@
         <v>-612060</v>
       </c>
       <c r="D925" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="926" spans="1:4">
@@ -13955,7 +13955,7 @@
         <v>243632</v>
       </c>
       <c r="D926" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="927" spans="1:4">
@@ -13969,7 +13969,7 @@
         <v>-504087</v>
       </c>
       <c r="D927" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="928" spans="1:4">
@@ -13983,7 +13983,7 @@
         <v>108232</v>
       </c>
       <c r="D928" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="929" spans="1:4">
@@ -13997,7 +13997,7 @@
         <v>793364</v>
       </c>
       <c r="D929" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="930" spans="1:4">
@@ -14011,7 +14011,7 @@
         <v>841804</v>
       </c>
       <c r="D930" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="931" spans="1:4">
@@ -14025,7 +14025,7 @@
         <v>654643</v>
       </c>
       <c r="D931" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="932" spans="1:4">
@@ -14039,7 +14039,7 @@
         <v>-1276861</v>
       </c>
       <c r="D932" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="933" spans="1:4">
@@ -14053,7 +14053,7 @@
         <v>1420407</v>
       </c>
       <c r="D933" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -14067,7 +14067,7 @@
         <v>605358</v>
       </c>
       <c r="D934" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="935" spans="1:4">
@@ -14081,7 +14081,7 @@
         <v>304370</v>
       </c>
       <c r="D935" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="936" spans="1:4">
@@ -14095,7 +14095,7 @@
         <v>38177</v>
       </c>
       <c r="D936" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="937" spans="1:4">
@@ -14109,7 +14109,7 @@
         <v>-987675</v>
       </c>
       <c r="D937" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="938" spans="1:4">
@@ -14123,7 +14123,7 @@
         <v>-170673</v>
       </c>
       <c r="D938" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="939" spans="1:4">
@@ -14137,7 +14137,7 @@
         <v>-314850</v>
       </c>
       <c r="D939" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="940" spans="1:4">
@@ -14151,7 +14151,7 @@
         <v>1450986</v>
       </c>
       <c r="D940" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="941" spans="1:4">
@@ -14165,7 +14165,7 @@
         <v>372005</v>
       </c>
       <c r="D941" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="942" spans="1:4">
@@ -14179,7 +14179,7 @@
         <v>884117</v>
       </c>
       <c r="D942" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="943" spans="1:4">
@@ -14193,7 +14193,7 @@
         <v>903834</v>
       </c>
       <c r="D943" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="944" spans="1:4">
@@ -14207,7 +14207,7 @@
         <v>442096</v>
       </c>
       <c r="D944" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="945" spans="1:4">
@@ -14221,7 +14221,7 @@
         <v>1165793</v>
       </c>
       <c r="D945" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="946" spans="1:4">
@@ -14235,7 +14235,7 @@
         <v>279450</v>
       </c>
       <c r="D946" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="947" spans="1:4">
@@ -14249,7 +14249,7 @@
         <v>1317515</v>
       </c>
       <c r="D947" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14263,7 +14263,7 @@
         <v>-942586</v>
       </c>
       <c r="D948" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -14277,7 +14277,7 @@
         <v>1348267</v>
       </c>
       <c r="D949" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="950" spans="1:4">
@@ -14291,7 +14291,7 @@
         <v>-874166</v>
       </c>
       <c r="D950" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="951" spans="1:4">
@@ -14305,7 +14305,7 @@
         <v>-785197</v>
       </c>
       <c r="D951" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="952" spans="1:4">
@@ -14319,7 +14319,7 @@
         <v>3010</v>
       </c>
       <c r="D952" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="953" spans="1:4">
@@ -14333,7 +14333,7 @@
         <v>1437739</v>
       </c>
       <c r="D953" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -14347,7 +14347,7 @@
         <v>-112959</v>
       </c>
       <c r="D954" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="955" spans="1:4">
@@ -14361,7 +14361,7 @@
         <v>1223734</v>
       </c>
       <c r="D955" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="956" spans="1:4">
@@ -14375,7 +14375,7 @@
         <v>-1336429</v>
       </c>
       <c r="D956" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="957" spans="1:4">
@@ -14389,7 +14389,7 @@
         <v>-279157</v>
       </c>
       <c r="D957" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="958" spans="1:4">
@@ -14403,7 +14403,7 @@
         <v>-257875</v>
       </c>
       <c r="D958" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="959" spans="1:4">
@@ -14417,7 +14417,7 @@
         <v>511349</v>
       </c>
       <c r="D959" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="960" spans="1:4">
@@ -14431,7 +14431,7 @@
         <v>-311304</v>
       </c>
       <c r="D960" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="961" spans="1:4">
@@ -14445,7 +14445,7 @@
         <v>-511733</v>
       </c>
       <c r="D961" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="962" spans="1:4">
@@ -14459,7 +14459,7 @@
         <v>722208</v>
       </c>
       <c r="D962" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="963" spans="1:4">
@@ -14473,7 +14473,7 @@
         <v>710605</v>
       </c>
       <c r="D963" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="964" spans="1:4">
@@ -14487,7 +14487,7 @@
         <v>1343870</v>
       </c>
       <c r="D964" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -14501,7 +14501,7 @@
         <v>849943</v>
       </c>
       <c r="D965" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="966" spans="1:4">
@@ -14515,7 +14515,7 @@
         <v>980536</v>
       </c>
       <c r="D966" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="967" spans="1:4">
@@ -14529,7 +14529,7 @@
         <v>-631897</v>
       </c>
       <c r="D967" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="968" spans="1:4">
@@ -14543,7 +14543,7 @@
         <v>528148</v>
       </c>
       <c r="D968" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="969" spans="1:4">
@@ -14557,7 +14557,7 @@
         <v>219445</v>
       </c>
       <c r="D969" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="970" spans="1:4">
@@ -14571,7 +14571,7 @@
         <v>-1414863</v>
       </c>
       <c r="D970" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="971" spans="1:4">
@@ -14585,7 +14585,7 @@
         <v>-1317667</v>
       </c>
       <c r="D971" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="972" spans="1:4">
@@ -14599,7 +14599,7 @@
         <v>-1245093</v>
       </c>
       <c r="D972" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="973" spans="1:4">
@@ -14613,7 +14613,7 @@
         <v>510871</v>
       </c>
       <c r="D973" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="974" spans="1:4">
@@ -14627,7 +14627,7 @@
         <v>821461</v>
       </c>
       <c r="D974" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="975" spans="1:4">
@@ -14641,7 +14641,7 @@
         <v>1348149</v>
       </c>
       <c r="D975" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="976" spans="1:4">
@@ -14655,7 +14655,7 @@
         <v>1237594</v>
       </c>
       <c r="D976" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -14669,7 +14669,7 @@
         <v>-697907</v>
       </c>
       <c r="D977" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="978" spans="1:4">
@@ -14683,7 +14683,7 @@
         <v>-558934</v>
       </c>
       <c r="D978" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -14697,7 +14697,7 @@
         <v>483686</v>
       </c>
       <c r="D979" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="980" spans="1:4">
@@ -14711,7 +14711,7 @@
         <v>-895566</v>
       </c>
       <c r="D980" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="981" spans="1:4">
@@ -14725,7 +14725,7 @@
         <v>164183</v>
       </c>
       <c r="D981" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="982" spans="1:4">
@@ -14739,7 +14739,7 @@
         <v>932362</v>
       </c>
       <c r="D982" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -14753,7 +14753,7 @@
         <v>538798</v>
       </c>
       <c r="D983" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -14767,19 +14767,18 @@
         <v>884339</v>
       </c>
       <c r="D984" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="985" spans="1:4">
       <c r="A985" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B985"/>
       <c r="C985">
         <v>125771</v>
       </c>
       <c r="D985" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -14793,7 +14792,7 @@
         <v>873010</v>
       </c>
       <c r="D986" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -14807,7 +14806,7 @@
         <v>-88567</v>
       </c>
       <c r="D987" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="988" spans="1:4">
@@ -14821,7 +14820,7 @@
         <v>-1150927</v>
       </c>
       <c r="D988" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="989" spans="1:4">
@@ -14835,7 +14834,7 @@
         <v>-843557</v>
       </c>
       <c r="D989" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="990" spans="1:4">
@@ -14849,7 +14848,7 @@
         <v>873330</v>
       </c>
       <c r="D990" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="991" spans="1:4">
@@ -14863,7 +14862,7 @@
         <v>-1329031</v>
       </c>
       <c r="D991" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="992" spans="1:4">
@@ -14877,7 +14876,7 @@
         <v>1484826</v>
       </c>
       <c r="D992" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="993" spans="1:4">
@@ -14888,10 +14887,10 @@
         <v>4</v>
       </c>
       <c r="C993" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D993" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="994" spans="1:4">
@@ -14905,7 +14904,7 @@
         <v>1206699</v>
       </c>
       <c r="D994" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -14919,7 +14918,7 @@
         <v>-404456</v>
       </c>
       <c r="D995" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="996" spans="1:4">
@@ -14933,7 +14932,7 @@
         <v>-365947</v>
       </c>
       <c r="D996" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="997" spans="1:4">
@@ -14947,7 +14946,7 @@
         <v>916325</v>
       </c>
       <c r="D997" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -14961,7 +14960,7 @@
         <v>-794988</v>
       </c>
       <c r="D998" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="999" spans="1:4">
@@ -14975,7 +14974,7 @@
         <v>-340593</v>
       </c>
       <c r="D999" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
@@ -14989,7 +14988,7 @@
         <v>627179</v>
       </c>
       <c r="D1000" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -15003,7 +15002,7 @@
         <v>1078475</v>
       </c>
       <c r="D1001" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
